--- a/dataExcel/【FN57 _ 怒氓 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【FN57 _ 怒氓 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 14:28:53</v>
+        <v>2023-09-19 09:38:52</v>
       </c>
       <c r="B8">
-        <v>40.45</v>
+        <v>39.6</v>
       </c>
       <c r="C8">
-        <v>46.87</v>
+        <v>46.54</v>
       </c>
       <c r="D8">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -449,10 +449,10 @@
         <v>0.04</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>38.2</v>
+        <v>38.29</v>
       </c>
       <c r="I8">
         <v>17</v>
@@ -460,106 +460,106 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 19:38:53</v>
+        <v>2023-09-19 14:48:51</v>
       </c>
       <c r="B9">
-        <v>39.89</v>
+        <v>39.6</v>
       </c>
       <c r="C9">
-        <v>46.87</v>
+        <v>46.54</v>
       </c>
       <c r="D9">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E9">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F9">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H9">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 00:48:53</v>
+        <v>2023-09-19 19:58:50</v>
       </c>
       <c r="B10">
-        <v>39.79</v>
+        <v>39.4</v>
       </c>
       <c r="C10">
-        <v>46.87</v>
+        <v>46.54</v>
       </c>
       <c r="D10">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F10">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 05:58:52</v>
+        <v>2023-09-20 01:08:49</v>
       </c>
       <c r="B11">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>47.32</v>
+        <v>46.54</v>
       </c>
       <c r="D11">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>38.4</v>
+        <v>38.29</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 11:08:52</v>
+        <v>2023-09-20 06:18:48</v>
       </c>
       <c r="B12">
-        <v>40.45</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>47.32</v>
+        <v>46.54</v>
       </c>
       <c r="D12">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E12">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F12">
         <v>0.04</v>
@@ -568,7 +568,7 @@
         <v>22</v>
       </c>
       <c r="H12">
-        <v>38.4</v>
+        <v>38.29</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -576,16 +576,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 16:18:51</v>
+        <v>2023-09-20 11:28:46</v>
       </c>
       <c r="B13">
-        <v>39.6</v>
+        <v>39.79</v>
       </c>
       <c r="C13">
-        <v>47.32</v>
+        <v>46.54</v>
       </c>
       <c r="D13">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="E13">
         <v>0.05</v>
@@ -594,10 +594,10 @@
         <v>0.04</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="I13">
         <v>16</v>
@@ -605,231 +605,231 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 21:28:50</v>
+        <v>2023-09-20 16:38:45</v>
       </c>
       <c r="B14">
-        <v>39.79</v>
+        <v>39.9</v>
       </c>
       <c r="C14">
-        <v>47.32</v>
+        <v>46.54</v>
       </c>
       <c r="D14">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F14">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>38.2</v>
+        <v>38.7</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 02:38:49</v>
+        <v>2023-09-20 21:48:44</v>
       </c>
       <c r="B15">
-        <v>39.79</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>47.32</v>
+        <v>46.54</v>
       </c>
       <c r="D15">
         <v>201</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F15">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>38.29</v>
+        <v>38.79</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 07:48:48</v>
+        <v>2023-09-21 02:58:43</v>
       </c>
       <c r="B16">
-        <v>39.9</v>
+        <v>40.68</v>
       </c>
       <c r="C16">
-        <v>47.32</v>
+        <v>48.62</v>
       </c>
       <c r="D16">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E16">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F16">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G16">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H16">
-        <v>38.2</v>
+        <v>38.7</v>
       </c>
       <c r="I16">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 12:58:57</v>
+        <v>2023-09-21 08:08:42</v>
       </c>
       <c r="B17">
-        <v>39.79</v>
+        <v>39.9</v>
       </c>
       <c r="C17">
-        <v>47.32</v>
+        <v>48.62</v>
       </c>
       <c r="D17">
         <v>198</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>38.29</v>
+        <v>38.7</v>
       </c>
       <c r="I17">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 18:08:56</v>
+        <v>2023-09-21 13:18:45</v>
       </c>
       <c r="B18">
-        <v>39.38</v>
+        <v>39.28</v>
       </c>
       <c r="C18">
-        <v>47.32</v>
+        <v>48.62</v>
       </c>
       <c r="D18">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F18">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H18">
-        <v>38.2</v>
+        <v>38.7</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 23:18:55</v>
+        <v>2023-09-21 18:28:44</v>
       </c>
       <c r="B19">
         <v>39.9</v>
       </c>
       <c r="C19">
-        <v>47.32</v>
+        <v>48.62</v>
       </c>
       <c r="D19">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F19">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G19">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>38.29</v>
+        <v>37.9</v>
       </c>
       <c r="I19">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 04:28:53</v>
+        <v>2023-09-21 23:38:42</v>
       </c>
       <c r="B20">
-        <v>39.79</v>
+        <v>39.9</v>
       </c>
       <c r="C20">
-        <v>46.54</v>
+        <v>48.62</v>
       </c>
       <c r="D20">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E20">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F20">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="I20">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 09:38:52</v>
+        <v>2023-09-22 04:48:42</v>
       </c>
       <c r="B21">
-        <v>39.6</v>
+        <v>40.5</v>
       </c>
       <c r="C21">
-        <v>46.54</v>
+        <v>47.12</v>
       </c>
       <c r="D21">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E21">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F21">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G21">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>38.29</v>
+        <v>38</v>
       </c>
       <c r="I21">
         <v>17</v>
@@ -837,74 +837,74 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 14:48:51</v>
+        <v>2023-09-22 09:58:40</v>
       </c>
       <c r="B22">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="C22">
-        <v>46.54</v>
+        <v>47.12</v>
       </c>
       <c r="D22">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E22">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F22">
         <v>0.04</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 19:58:50</v>
+        <v>2023-09-22 15:08:39</v>
       </c>
       <c r="B23">
-        <v>39.4</v>
+        <v>40.29</v>
       </c>
       <c r="C23">
-        <v>46.54</v>
+        <v>47.12</v>
       </c>
       <c r="D23">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E23">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F23">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 01:08:49</v>
+        <v>2023-09-22 20:18:38</v>
       </c>
       <c r="B24">
         <v>40</v>
       </c>
       <c r="C24">
-        <v>46.54</v>
+        <v>47.12</v>
       </c>
       <c r="D24">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>0.03</v>
@@ -913,68 +913,68 @@
         <v>0.02</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>38.29</v>
+        <v>38.2</v>
       </c>
       <c r="I24">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 06:18:48</v>
+        <v>2023-09-23 01:28:37</v>
       </c>
       <c r="B25">
         <v>40</v>
       </c>
       <c r="C25">
-        <v>46.54</v>
+        <v>47.12</v>
       </c>
       <c r="D25">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F25">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G25">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H25">
-        <v>38.29</v>
+        <v>38.2</v>
       </c>
       <c r="I25">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 11:28:46</v>
+        <v>2023-09-23 06:38:36</v>
       </c>
       <c r="B26">
-        <v>39.79</v>
+        <v>40</v>
       </c>
       <c r="C26">
-        <v>46.54</v>
+        <v>49.14</v>
       </c>
       <c r="D26">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F26">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G26">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H26">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="I26">
         <v>16</v>
@@ -982,16 +982,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 16:38:45</v>
+        <v>2023-09-23 11:48:35</v>
       </c>
       <c r="B27">
         <v>39.9</v>
       </c>
       <c r="C27">
-        <v>46.54</v>
+        <v>49.14</v>
       </c>
       <c r="D27">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E27">
         <v>0.04</v>
@@ -1000,27 +1000,27 @@
         <v>0.03</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>38.7</v>
+        <v>38.29</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 21:48:44</v>
+        <v>2023-09-23 16:58:34</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
-        <v>46.54</v>
+        <v>49.14</v>
       </c>
       <c r="D28">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E28">
         <v>0.04</v>
@@ -1029,27 +1029,27 @@
         <v>0.03</v>
       </c>
       <c r="G28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H28">
-        <v>38.79</v>
+        <v>38</v>
       </c>
       <c r="I28">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 02:58:43</v>
+        <v>2023-09-23 22:08:33</v>
       </c>
       <c r="B29">
-        <v>40.68</v>
+        <v>39.49</v>
       </c>
       <c r="C29">
-        <v>48.62</v>
+        <v>49.14</v>
       </c>
       <c r="D29">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="E29">
         <v>0.04</v>
@@ -1058,27 +1058,27 @@
         <v>0.03</v>
       </c>
       <c r="G29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H29">
-        <v>38.7</v>
+        <v>38</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 08:08:42</v>
+        <v>2023-09-24 03:18:32</v>
       </c>
       <c r="B30">
         <v>39.9</v>
       </c>
       <c r="C30">
-        <v>48.62</v>
+        <v>46.09</v>
       </c>
       <c r="D30">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E30">
         <v>0.04</v>
@@ -1087,27 +1087,27 @@
         <v>0.03</v>
       </c>
       <c r="G30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H30">
-        <v>38.7</v>
+        <v>38</v>
       </c>
       <c r="I30">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 13:18:45</v>
+        <v>2023-09-24 08:28:31</v>
       </c>
       <c r="B31">
-        <v>39.28</v>
+        <v>39.7</v>
       </c>
       <c r="C31">
-        <v>48.62</v>
+        <v>46.09</v>
       </c>
       <c r="D31">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E31">
         <v>0.04</v>
@@ -1116,143 +1116,143 @@
         <v>0.03</v>
       </c>
       <c r="G31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31">
-        <v>38.7</v>
+        <v>38</v>
       </c>
       <c r="I31">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 18:28:44</v>
+        <v>2023-09-24 13:38:29</v>
       </c>
       <c r="B32">
-        <v>39.9</v>
+        <v>39.79</v>
       </c>
       <c r="C32">
-        <v>48.62</v>
+        <v>46.09</v>
       </c>
       <c r="D32">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F32">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G32">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H32">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="I32">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-21 23:38:42</v>
+        <v>2023-09-24 18:38:42</v>
       </c>
       <c r="B33">
-        <v>39.9</v>
+        <v>38.79</v>
       </c>
       <c r="C33">
-        <v>48.62</v>
+        <v>46.09</v>
       </c>
       <c r="D33">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F33">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G33">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H33">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="I33">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 04:48:42</v>
+        <v>2023-09-24 23:48:42</v>
       </c>
       <c r="B34">
-        <v>40.5</v>
+        <v>39.9</v>
       </c>
       <c r="C34">
-        <v>47.12</v>
+        <v>46.09</v>
       </c>
       <c r="D34">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F34">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H34">
         <v>38</v>
       </c>
       <c r="I34">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 09:58:40</v>
+        <v>2023-09-25 04:48:50</v>
       </c>
       <c r="B35">
-        <v>40.4</v>
+        <v>39.9</v>
       </c>
       <c r="C35">
-        <v>47.12</v>
+        <v>49.4</v>
       </c>
       <c r="D35">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E35">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F35">
         <v>0.04</v>
       </c>
       <c r="G35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H35">
         <v>38</v>
       </c>
       <c r="I35">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 15:08:39</v>
+        <v>2023-09-25 09:48:57</v>
       </c>
       <c r="B36">
-        <v>40.29</v>
+        <v>39.79</v>
       </c>
       <c r="C36">
-        <v>47.12</v>
+        <v>49.4</v>
       </c>
       <c r="D36">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E36">
         <v>0.05</v>
@@ -1261,201 +1261,201 @@
         <v>0.04</v>
       </c>
       <c r="G36">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H36">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="I36">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 20:18:38</v>
+        <v>2023-09-25 14:49:04</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>40.15</v>
       </c>
       <c r="C37">
-        <v>47.12</v>
+        <v>49.4</v>
       </c>
       <c r="D37">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F37">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G37">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H37">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="I37">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 01:28:37</v>
+        <v>2023-09-25 19:49:11</v>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>39.79</v>
       </c>
       <c r="C38">
-        <v>47.12</v>
+        <v>49.4</v>
       </c>
       <c r="D38">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E38">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F38">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G38">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 06:38:36</v>
+        <v>2023-09-26 00:51:23</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="C39">
-        <v>49.14</v>
+        <v>49.4</v>
       </c>
       <c r="D39">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E39">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F39">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G39">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H39">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 11:48:35</v>
+        <v>2023-09-26 06:02:12</v>
       </c>
       <c r="B40">
-        <v>39.9</v>
+        <v>39.77</v>
       </c>
       <c r="C40">
-        <v>49.14</v>
+        <v>48.43</v>
       </c>
       <c r="D40">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E40">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F40">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G40">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>38.29</v>
+        <v>38.1</v>
       </c>
       <c r="I40">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 16:58:34</v>
+        <v>2023-09-26 11:12:18</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>39.97</v>
       </c>
       <c r="C41">
-        <v>49.14</v>
+        <v>48.43</v>
       </c>
       <c r="D41">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="E41">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F41">
         <v>0.03</v>
       </c>
       <c r="G41">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 22:08:33</v>
+        <v>2023-09-26 16:21:36</v>
       </c>
       <c r="B42">
-        <v>39.49</v>
+        <v>39.29</v>
       </c>
       <c r="C42">
-        <v>49.14</v>
+        <v>48.43</v>
       </c>
       <c r="D42">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F42">
         <v>0.03</v>
       </c>
       <c r="G42">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 03:18:32</v>
+        <v>2023-09-26 21:32:18</v>
       </c>
       <c r="B43">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>46.09</v>
+        <v>48.43</v>
       </c>
       <c r="D43">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E43">
         <v>0.04</v>
@@ -1464,27 +1464,27 @@
         <v>0.03</v>
       </c>
       <c r="G43">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="I43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 08:28:31</v>
+        <v>2023-09-27 02:41:42</v>
       </c>
       <c r="B44">
-        <v>39.7</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>46.09</v>
+        <v>48.43</v>
       </c>
       <c r="D44">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E44">
         <v>0.04</v>
@@ -1493,27 +1493,27 @@
         <v>0.03</v>
       </c>
       <c r="G44">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="I44">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 13:38:29</v>
+        <v>2023-09-27 07:52:06</v>
       </c>
       <c r="B45">
-        <v>39.79</v>
+        <v>39.9</v>
       </c>
       <c r="C45">
-        <v>46.09</v>
+        <v>48.43</v>
       </c>
       <c r="D45">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E45">
         <v>0.04</v>
@@ -1522,27 +1522,27 @@
         <v>0.03</v>
       </c>
       <c r="G45">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>38</v>
+        <v>38.4</v>
       </c>
       <c r="I45">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 18:38:42</v>
+        <v>2023-09-27 13:02:15</v>
       </c>
       <c r="B46">
-        <v>38.79</v>
+        <v>39.79</v>
       </c>
       <c r="C46">
-        <v>46.09</v>
+        <v>48.43</v>
       </c>
       <c r="D46">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E46">
         <v>0.04</v>
@@ -1551,27 +1551,27 @@
         <v>0.03</v>
       </c>
       <c r="G46">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="I46">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-24 23:48:42</v>
+        <v>2023-09-27 18:11:51</v>
       </c>
       <c r="B47">
-        <v>39.9</v>
+        <v>38.4</v>
       </c>
       <c r="C47">
-        <v>46.09</v>
+        <v>48.43</v>
       </c>
       <c r="D47">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E47">
         <v>0.04</v>
@@ -1580,97 +1580,97 @@
         <v>0.03</v>
       </c>
       <c r="G47">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>38</v>
       </c>
       <c r="I47">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 04:48:50</v>
+        <v>2023-09-27 23:21:50</v>
       </c>
       <c r="B48">
-        <v>39.9</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>49.4</v>
+        <v>48.43</v>
       </c>
       <c r="D48">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G48">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 09:48:57</v>
+        <v>2023-09-28 04:31:49</v>
       </c>
       <c r="B49">
-        <v>39.79</v>
+        <v>39.1</v>
       </c>
       <c r="C49">
-        <v>49.4</v>
+        <v>46.34</v>
       </c>
       <c r="D49">
         <v>205</v>
       </c>
       <c r="E49">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G49">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="I49">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 14:49:04</v>
+        <v>2023-09-28 09:41:48</v>
       </c>
       <c r="B50">
-        <v>40.15</v>
+        <v>38.7</v>
       </c>
       <c r="C50">
-        <v>49.4</v>
+        <v>46.34</v>
       </c>
       <c r="D50">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E50">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F50">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G50">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>38</v>
+        <v>37.1</v>
       </c>
       <c r="I50">
         <v>12</v>
@@ -1678,173 +1678,173 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 19:49:11</v>
+        <v>2023-09-28 14:52:30</v>
       </c>
       <c r="B51">
-        <v>39.79</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>49.4</v>
+        <v>46.34</v>
       </c>
       <c r="D51">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E51">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F51">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G51">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>38</v>
+        <v>36.79</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 00:51:23</v>
+        <v>2023-09-28 20:01:56</v>
       </c>
       <c r="B52">
-        <v>39.99</v>
+        <v>35.9</v>
       </c>
       <c r="C52">
-        <v>49.4</v>
+        <v>46.34</v>
       </c>
       <c r="D52">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="E52">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F52">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G52">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>38.1</v>
+        <v>31.2</v>
       </c>
       <c r="I52">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 06:02:12</v>
+        <v>2023-09-29 01:11:55</v>
       </c>
       <c r="B53">
-        <v>39.77</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>48.43</v>
+        <v>46.34</v>
       </c>
       <c r="D53">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E53">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F53">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G53">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>38.1</v>
+        <v>32.1</v>
       </c>
       <c r="I53">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 11:12:18</v>
+        <v>2023-09-29 06:22:44</v>
       </c>
       <c r="B54">
-        <v>39.97</v>
+        <v>36</v>
       </c>
       <c r="C54">
-        <v>48.43</v>
+        <v>48.16</v>
       </c>
       <c r="D54">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="E54">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F54">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G54">
+        <v>41</v>
+      </c>
+      <c r="H54">
         <v>32</v>
       </c>
-      <c r="H54">
-        <v>38.1</v>
-      </c>
       <c r="I54">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 16:21:36</v>
+        <v>2023-09-29 11:32:01</v>
       </c>
       <c r="B55">
-        <v>39.29</v>
+        <v>36</v>
       </c>
       <c r="C55">
-        <v>48.43</v>
+        <v>48.16</v>
       </c>
       <c r="D55">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="E55">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G55">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H55">
-        <v>38.2</v>
+        <v>32.6</v>
       </c>
       <c r="I55">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 21:32:18</v>
+        <v>2023-09-29 16:42:43</v>
       </c>
       <c r="B56">
-        <v>40</v>
+        <v>35.5</v>
       </c>
       <c r="C56">
-        <v>48.43</v>
+        <v>48.16</v>
       </c>
       <c r="D56">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E56">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F56">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G56">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>38.2</v>
+        <v>33.2</v>
       </c>
       <c r="I56">
         <v>14</v>
@@ -1852,16 +1852,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 02:41:42</v>
+        <v>2023-09-29 21:52:07</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <v>48.43</v>
+        <v>48.16</v>
       </c>
       <c r="D57">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E57">
         <v>0.04</v>
@@ -1870,10 +1870,10 @@
         <v>0.03</v>
       </c>
       <c r="G57">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>38.4</v>
+        <v>33.2</v>
       </c>
       <c r="I57">
         <v>13</v>
@@ -1881,16 +1881,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 07:52:06</v>
+        <v>2023-09-30 03:00:57</v>
       </c>
       <c r="B58">
-        <v>39.9</v>
+        <v>35.29</v>
       </c>
       <c r="C58">
-        <v>48.43</v>
+        <v>48.16</v>
       </c>
       <c r="D58">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="E58">
         <v>0.04</v>
@@ -1899,27 +1899,27 @@
         <v>0.03</v>
       </c>
       <c r="G58">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>38.4</v>
+        <v>33.29</v>
       </c>
       <c r="I58">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 13:02:15</v>
+        <v>2023-09-30 08:09:56</v>
       </c>
       <c r="B59">
-        <v>39.79</v>
+        <v>35.2</v>
       </c>
       <c r="C59">
-        <v>48.43</v>
+        <v>48.16</v>
       </c>
       <c r="D59">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="E59">
         <v>0.04</v>
@@ -1928,27 +1928,27 @@
         <v>0.03</v>
       </c>
       <c r="G59">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H59">
-        <v>37.9</v>
+        <v>33.29</v>
       </c>
       <c r="I59">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 18:11:51</v>
+        <v>2023-09-30 13:21:09</v>
       </c>
       <c r="B60">
-        <v>38.4</v>
+        <v>34.2</v>
       </c>
       <c r="C60">
-        <v>48.43</v>
+        <v>48.16</v>
       </c>
       <c r="D60">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E60">
         <v>0.04</v>
@@ -1957,224 +1957,224 @@
         <v>0.03</v>
       </c>
       <c r="G60">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H60">
-        <v>38</v>
+        <v>32.5</v>
       </c>
       <c r="I60">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-27 23:21:50</v>
+        <v>2023-09-30 18:31:34</v>
       </c>
       <c r="B61">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C61">
-        <v>48.43</v>
+        <v>48.16</v>
       </c>
       <c r="D61">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E61">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F61">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G61">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H61">
-        <v>37.9</v>
+        <v>30.6</v>
       </c>
       <c r="I61">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 04:31:49</v>
+        <v>2023-09-30 23:39:43</v>
       </c>
       <c r="B62">
-        <v>39.1</v>
+        <v>34.2</v>
       </c>
       <c r="C62">
-        <v>46.34</v>
+        <v>48.16</v>
       </c>
       <c r="D62">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E62">
         <v>0.04</v>
       </c>
       <c r="F62">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G62">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>37.9</v>
+        <v>31</v>
       </c>
       <c r="I62">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 09:41:48</v>
+        <v>2023-10-01 04:51:39</v>
       </c>
       <c r="B63">
-        <v>38.7</v>
+        <v>35.5</v>
       </c>
       <c r="C63">
-        <v>46.34</v>
+        <v>48.03</v>
       </c>
       <c r="D63">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E63">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F63">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G63">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>37.1</v>
+        <v>31.1</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 14:52:30</v>
+        <v>2023-10-01 10:00:50</v>
       </c>
       <c r="B64">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64">
-        <v>46.34</v>
+        <v>48.03</v>
       </c>
       <c r="D64">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E64">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F64">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G64">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>36.79</v>
+        <v>31.1</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 20:01:56</v>
+        <v>2023-10-01 15:10:31</v>
       </c>
       <c r="B65">
-        <v>35.9</v>
+        <v>37</v>
       </c>
       <c r="C65">
-        <v>46.34</v>
+        <v>48.03</v>
       </c>
       <c r="D65">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E65">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F65">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G65">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="I65">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 01:11:55</v>
+        <v>2023-10-01 20:20:54</v>
       </c>
       <c r="B66">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C66">
-        <v>46.34</v>
+        <v>48.03</v>
       </c>
       <c r="D66">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E66">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F66">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G66">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>32.1</v>
+        <v>32.7</v>
       </c>
       <c r="I66">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 06:22:44</v>
+        <v>2023-10-02 01:31:05</v>
       </c>
       <c r="B67">
-        <v>36</v>
+        <v>38.29</v>
       </c>
       <c r="C67">
-        <v>48.16</v>
+        <v>48.03</v>
       </c>
       <c r="D67">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E67">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F67">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G67">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>32</v>
+        <v>34.6</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 11:32:01</v>
+        <v>2023-10-02 06:38:57</v>
       </c>
       <c r="B68">
-        <v>36</v>
+        <v>38.19</v>
       </c>
       <c r="C68">
         <v>48.16</v>
@@ -2183,62 +2183,62 @@
         <v>223</v>
       </c>
       <c r="E68">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F68">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G68">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>32.6</v>
+        <v>34.6</v>
       </c>
       <c r="I68">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 16:42:43</v>
+        <v>2023-10-02 11:50:35</v>
       </c>
       <c r="B69">
-        <v>35.5</v>
+        <v>37.4</v>
       </c>
       <c r="C69">
         <v>48.16</v>
       </c>
       <c r="D69">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F69">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G69">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69">
-        <v>33.2</v>
+        <v>35.1</v>
       </c>
       <c r="I69">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-29 21:52:07</v>
+        <v>2023-10-02 17:00:17</v>
       </c>
       <c r="B70">
-        <v>35</v>
+        <v>36.29</v>
       </c>
       <c r="C70">
         <v>48.16</v>
       </c>
       <c r="D70">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E70">
         <v>0.04</v>
@@ -2247,27 +2247,27 @@
         <v>0.03</v>
       </c>
       <c r="G70">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>33.2</v>
+        <v>35.4</v>
       </c>
       <c r="I70">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 03:00:57</v>
+        <v>2023-10-02 22:10:12</v>
       </c>
       <c r="B71">
-        <v>35.29</v>
+        <v>37.4</v>
       </c>
       <c r="C71">
         <v>48.16</v>
       </c>
       <c r="D71">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E71">
         <v>0.04</v>
@@ -2276,27 +2276,27 @@
         <v>0.03</v>
       </c>
       <c r="G71">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>33.29</v>
+        <v>35.6</v>
       </c>
       <c r="I71">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 08:09:56</v>
+        <v>2023-10-03 03:19:15</v>
       </c>
       <c r="B72">
-        <v>35.2</v>
+        <v>36.5</v>
       </c>
       <c r="C72">
-        <v>48.16</v>
+        <v>48.1</v>
       </c>
       <c r="D72">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E72">
         <v>0.04</v>
@@ -2305,375 +2305,375 @@
         <v>0.03</v>
       </c>
       <c r="G72">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H72">
-        <v>33.29</v>
+        <v>35.6</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 13:21:09</v>
+        <v>2023-10-03 08:30:41</v>
       </c>
       <c r="B73">
-        <v>34.2</v>
+        <v>36.6</v>
       </c>
       <c r="C73">
-        <v>48.16</v>
+        <v>48.1</v>
       </c>
       <c r="D73">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E73">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F73">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G73">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H73">
-        <v>32.5</v>
+        <v>35.6</v>
       </c>
       <c r="I73">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 18:31:34</v>
+        <v>2023-10-03 13:41:53</v>
       </c>
       <c r="B74">
-        <v>34</v>
+        <v>37.2</v>
       </c>
       <c r="C74">
-        <v>48.16</v>
+        <v>48.1</v>
       </c>
       <c r="D74">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E74">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F74">
         <v>0.02</v>
       </c>
       <c r="G74">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H74">
-        <v>30.6</v>
+        <v>35.6</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-30 23:39:43</v>
+        <v>2023-10-03 18:50:28</v>
       </c>
       <c r="B75">
-        <v>34.2</v>
+        <v>37.7</v>
       </c>
       <c r="C75">
-        <v>48.16</v>
+        <v>48.1</v>
       </c>
       <c r="D75">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E75">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F75">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G75">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H75">
-        <v>31</v>
+        <v>35.5</v>
       </c>
       <c r="I75">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 04:51:39</v>
+        <v>2023-10-04 00:02:35</v>
       </c>
       <c r="B76">
-        <v>35.5</v>
+        <v>37.29</v>
       </c>
       <c r="C76">
-        <v>48.03</v>
+        <v>48.1</v>
       </c>
       <c r="D76">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E76">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F76">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G76">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H76">
-        <v>31.1</v>
+        <v>35.7</v>
       </c>
       <c r="I76">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 10:00:50</v>
+        <v>2023-10-04 05:11:27</v>
       </c>
       <c r="B77">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77">
-        <v>48.03</v>
+        <v>50.57</v>
       </c>
       <c r="D77">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E77">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F77">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G77">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H77">
-        <v>31.1</v>
+        <v>35.7</v>
       </c>
       <c r="I77">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 15:10:31</v>
+        <v>2023-10-04 10:20:51</v>
       </c>
       <c r="B78">
         <v>37</v>
       </c>
       <c r="C78">
-        <v>48.03</v>
+        <v>50.57</v>
       </c>
       <c r="D78">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F78">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G78">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H78">
-        <v>32.1</v>
+        <v>35.7</v>
       </c>
       <c r="I78">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 20:20:54</v>
+        <v>2023-10-04 15:30:03</v>
       </c>
       <c r="B79">
-        <v>37</v>
+        <v>36.79</v>
       </c>
       <c r="C79">
-        <v>48.03</v>
+        <v>50.57</v>
       </c>
       <c r="D79">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="E79">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F79">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G79">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H79">
-        <v>32.7</v>
+        <v>35.7</v>
       </c>
       <c r="I79">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 01:31:05</v>
+        <v>2023-10-04 20:41:53</v>
       </c>
       <c r="B80">
-        <v>38.29</v>
+        <v>36.29</v>
       </c>
       <c r="C80">
-        <v>48.03</v>
+        <v>50.57</v>
       </c>
       <c r="D80">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="E80">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F80">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G80">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H80">
-        <v>34.6</v>
+        <v>35.7</v>
       </c>
       <c r="I80">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 06:38:57</v>
+        <v>2023-10-05 01:51:16</v>
       </c>
       <c r="B81">
-        <v>38.19</v>
+        <v>36.29</v>
       </c>
       <c r="C81">
-        <v>48.16</v>
+        <v>50.57</v>
       </c>
       <c r="D81">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="E81">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F81">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G81">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H81">
-        <v>34.6</v>
+        <v>35.7</v>
       </c>
       <c r="I81">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 11:50:35</v>
+        <v>2023-10-05 07:01:35</v>
       </c>
       <c r="B82">
-        <v>37.4</v>
+        <v>36.2</v>
       </c>
       <c r="C82">
-        <v>48.16</v>
+        <v>51.09</v>
       </c>
       <c r="D82">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E82">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F82">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G82">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H82">
-        <v>35.1</v>
+        <v>35.7</v>
       </c>
       <c r="I82">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 17:00:17</v>
+        <v>2023-10-05 12:12:54</v>
       </c>
       <c r="B83">
-        <v>36.29</v>
+        <v>36.1</v>
       </c>
       <c r="C83">
-        <v>48.16</v>
+        <v>51.09</v>
       </c>
       <c r="D83">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E83">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F83">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G83">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H83">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="I83">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-02 22:10:12</v>
+        <v>2023-10-05 17:21:45</v>
       </c>
       <c r="B84">
-        <v>37.4</v>
+        <v>36.6</v>
       </c>
       <c r="C84">
-        <v>48.16</v>
+        <v>51.09</v>
       </c>
       <c r="D84">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E84">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F84">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G84">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H84">
         <v>35.6</v>
       </c>
       <c r="I84">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 03:19:15</v>
+        <v>2023-10-05 22:33:45</v>
       </c>
       <c r="B85">
-        <v>36.5</v>
+        <v>35.9</v>
       </c>
       <c r="C85">
-        <v>48.1</v>
+        <v>51.09</v>
       </c>
       <c r="D85">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E85">
         <v>0.04</v>
@@ -2682,259 +2682,259 @@
         <v>0.03</v>
       </c>
       <c r="G85">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H85">
-        <v>35.6</v>
+        <v>34.7</v>
       </c>
       <c r="I85">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 08:30:41</v>
+        <v>2023-10-06 03:43:00</v>
       </c>
       <c r="B86">
         <v>36.6</v>
       </c>
       <c r="C86">
-        <v>48.1</v>
+        <v>54.4</v>
       </c>
       <c r="D86">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E86">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F86">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G86">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H86">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="I86">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 13:41:53</v>
+        <v>2023-10-06 08:53:07</v>
       </c>
       <c r="B87">
-        <v>37.2</v>
+        <v>36.5</v>
       </c>
       <c r="C87">
-        <v>48.1</v>
+        <v>54.4</v>
       </c>
       <c r="D87">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="E87">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F87">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G87">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H87">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="I87">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 18:50:28</v>
+        <v>2023-10-06 14:01:02</v>
       </c>
       <c r="B88">
-        <v>37.7</v>
+        <v>36.5</v>
       </c>
       <c r="C88">
-        <v>48.1</v>
+        <v>54.4</v>
       </c>
       <c r="D88">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E88">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F88">
         <v>0.03</v>
       </c>
       <c r="G88">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H88">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="I88">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-04 00:02:35</v>
+        <v>2023-10-06 19:11:01</v>
       </c>
       <c r="B89">
-        <v>37.29</v>
+        <v>36.56</v>
       </c>
       <c r="C89">
-        <v>48.1</v>
+        <v>54.4</v>
       </c>
       <c r="D89">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E89">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F89">
         <v>0.03</v>
       </c>
       <c r="G89">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H89">
-        <v>35.7</v>
+        <v>35.29</v>
       </c>
       <c r="I89">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 05:11:27</v>
+        <v>2023-10-07 00:23:38</v>
       </c>
       <c r="B90">
-        <v>37</v>
+        <v>36.46</v>
       </c>
       <c r="C90">
-        <v>50.57</v>
+        <v>54.4</v>
       </c>
       <c r="D90">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E90">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F90">
         <v>0.03</v>
       </c>
       <c r="G90">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H90">
-        <v>35.7</v>
+        <v>35.29</v>
       </c>
       <c r="I90">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 10:20:51</v>
+        <v>2023-10-07 05:32:01</v>
       </c>
       <c r="B91">
-        <v>37</v>
+        <v>36.45</v>
       </c>
       <c r="C91">
-        <v>50.57</v>
+        <v>49.01</v>
       </c>
       <c r="D91">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="E91">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F91">
         <v>0.03</v>
       </c>
       <c r="G91">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H91">
-        <v>35.7</v>
+        <v>35.29</v>
       </c>
       <c r="I91">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 15:30:03</v>
+        <v>2023-10-07 10:42:42</v>
       </c>
       <c r="B92">
-        <v>36.79</v>
+        <v>36.65</v>
       </c>
       <c r="C92">
-        <v>50.57</v>
+        <v>49.01</v>
       </c>
       <c r="D92">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="E92">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F92">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G92">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H92">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="I92">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 20:41:53</v>
+        <v>2023-10-07 15:53:44</v>
       </c>
       <c r="B93">
-        <v>36.29</v>
+        <v>37.29</v>
       </c>
       <c r="C93">
-        <v>50.57</v>
+        <v>49.01</v>
       </c>
       <c r="D93">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E93">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F93">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G93">
         <v>51</v>
       </c>
       <c r="H93">
-        <v>35.7</v>
+        <v>35.1</v>
       </c>
       <c r="I93">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 01:51:16</v>
+        <v>2023-10-07 21:02:58</v>
       </c>
       <c r="B94">
-        <v>36.29</v>
+        <v>37.2</v>
       </c>
       <c r="C94">
-        <v>50.57</v>
+        <v>49.01</v>
       </c>
       <c r="D94">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E94">
         <v>0.02</v>
@@ -2946,7 +2946,7 @@
         <v>50</v>
       </c>
       <c r="H94">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="I94">
         <v>16</v>
@@ -2954,45 +2954,45 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 07:01:35</v>
+        <v>2023-10-08 02:14:04</v>
       </c>
       <c r="B95">
-        <v>36.2</v>
+        <v>37.29</v>
       </c>
       <c r="C95">
-        <v>51.09</v>
+        <v>49.01</v>
       </c>
       <c r="D95">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="E95">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F95">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G95">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H95">
         <v>35.7</v>
       </c>
       <c r="I95">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 12:12:54</v>
+        <v>2023-10-08 07:23:08</v>
       </c>
       <c r="B96">
-        <v>36.1</v>
+        <v>37.4</v>
       </c>
       <c r="C96">
-        <v>51.09</v>
+        <v>49.01</v>
       </c>
       <c r="D96">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="E96">
         <v>0.03</v>
@@ -3001,126 +3001,126 @@
         <v>0.02</v>
       </c>
       <c r="G96">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H96">
         <v>35.7</v>
       </c>
       <c r="I96">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 17:21:45</v>
+        <v>2023-10-08 12:32:31</v>
       </c>
       <c r="B97">
-        <v>36.6</v>
+        <v>37.08</v>
       </c>
       <c r="C97">
-        <v>51.09</v>
+        <v>49.01</v>
       </c>
       <c r="D97">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="E97">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F97">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G97">
         <v>49</v>
       </c>
       <c r="H97">
-        <v>35.6</v>
+        <v>35.79</v>
       </c>
       <c r="I97">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-05 22:33:45</v>
+        <v>2023-10-08 17:44:54</v>
       </c>
       <c r="B98">
-        <v>35.9</v>
+        <v>36.7</v>
       </c>
       <c r="C98">
-        <v>51.09</v>
+        <v>49.01</v>
       </c>
       <c r="D98">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="E98">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F98">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G98">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H98">
-        <v>34.7</v>
+        <v>35.7</v>
       </c>
       <c r="I98">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 03:43:00</v>
+        <v>2023-10-08 22:52:03</v>
       </c>
       <c r="B99">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C99">
-        <v>54.4</v>
+        <v>49.01</v>
       </c>
       <c r="D99">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="E99">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F99">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G99">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H99">
-        <v>35</v>
+        <v>35.6</v>
       </c>
       <c r="I99">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 08:53:07</v>
+        <v>2023-10-09 04:02:00</v>
       </c>
       <c r="B100">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C100">
-        <v>54.4</v>
+        <v>49.59</v>
       </c>
       <c r="D100">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="E100">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F100">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G100">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H100">
-        <v>35.1</v>
+        <v>35.6</v>
       </c>
       <c r="I100">
         <v>14</v>
@@ -3128,28 +3128,28 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 14:01:02</v>
+        <v>2023-10-09 09:14:28</v>
       </c>
       <c r="B101">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="C101">
-        <v>54.4</v>
+        <v>49.59</v>
       </c>
       <c r="D101">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E101">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F101">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G101">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H101">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="I101">
         <v>15</v>
@@ -3157,57 +3157,57 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 19:11:01</v>
+        <v>2023-10-09 14:24:49</v>
       </c>
       <c r="B102">
-        <v>36.56</v>
+        <v>36.79</v>
       </c>
       <c r="C102">
-        <v>54.4</v>
+        <v>49.59</v>
       </c>
       <c r="D102">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E102">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F102">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G102">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H102">
-        <v>35.29</v>
+        <v>35.79</v>
       </c>
       <c r="I102">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-07 00:23:38</v>
+        <v>2023-10-09 19:33:15</v>
       </c>
       <c r="B103">
-        <v>36.46</v>
+        <v>36.79</v>
       </c>
       <c r="C103">
-        <v>54.4</v>
+        <v>49.59</v>
       </c>
       <c r="D103">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="E103">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F103">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G103">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H103">
-        <v>35.29</v>
+        <v>35.6</v>
       </c>
       <c r="I103">
         <v>13</v>
@@ -3215,28 +3215,28 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 05:32:01</v>
+        <v>2023-10-10 00:43:06</v>
       </c>
       <c r="B104">
-        <v>36.45</v>
+        <v>36.99</v>
       </c>
       <c r="C104">
-        <v>49.01</v>
+        <v>49.59</v>
       </c>
       <c r="D104">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E104">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F104">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G104">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H104">
-        <v>35.29</v>
+        <v>35.6</v>
       </c>
       <c r="I104">
         <v>13</v>
@@ -3244,16 +3244,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 10:42:42</v>
+        <v>2023-10-10 05:52:27</v>
       </c>
       <c r="B105">
-        <v>36.65</v>
+        <v>37</v>
       </c>
       <c r="C105">
-        <v>49.01</v>
+        <v>51.28</v>
       </c>
       <c r="D105">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E105">
         <v>0.03</v>
@@ -3262,27 +3262,27 @@
         <v>0.02</v>
       </c>
       <c r="G105">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H105">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="I105">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 15:53:44</v>
+        <v>2023-10-10 11:03:08</v>
       </c>
       <c r="B106">
-        <v>37.29</v>
+        <v>36.78</v>
       </c>
       <c r="C106">
-        <v>49.01</v>
+        <v>51.28</v>
       </c>
       <c r="D106">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E106">
         <v>0.03</v>
@@ -3291,56 +3291,56 @@
         <v>0.02</v>
       </c>
       <c r="G106">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H106">
-        <v>35.1</v>
+        <v>35.6</v>
       </c>
       <c r="I106">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-07 21:02:58</v>
+        <v>2023-10-10 16:12:45</v>
       </c>
       <c r="B107">
-        <v>37.2</v>
+        <v>36.78</v>
       </c>
       <c r="C107">
-        <v>49.01</v>
+        <v>51.28</v>
       </c>
       <c r="D107">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E107">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F107">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G107">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H107">
         <v>35.6</v>
       </c>
       <c r="I107">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-08 02:14:04</v>
+        <v>2023-10-10 21:24:34</v>
       </c>
       <c r="B108">
-        <v>37.29</v>
+        <v>36.77</v>
       </c>
       <c r="C108">
-        <v>49.01</v>
+        <v>51.28</v>
       </c>
       <c r="D108">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E108">
         <v>0.03</v>
@@ -3349,27 +3349,27 @@
         <v>0.02</v>
       </c>
       <c r="G108">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H108">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="I108">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 07:23:08</v>
+        <v>2023-10-11 02:35:02</v>
       </c>
       <c r="B109">
-        <v>37.4</v>
+        <v>36.78</v>
       </c>
       <c r="C109">
-        <v>49.01</v>
+        <v>50.31</v>
       </c>
       <c r="D109">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E109">
         <v>0.03</v>
@@ -3378,143 +3378,143 @@
         <v>0.02</v>
       </c>
       <c r="G109">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H109">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="I109">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 12:32:31</v>
+        <v>2023-10-11 07:44:18</v>
       </c>
       <c r="B110">
-        <v>37.08</v>
+        <v>36.78</v>
       </c>
       <c r="C110">
-        <v>49.01</v>
+        <v>50.31</v>
       </c>
       <c r="D110">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E110">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F110">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G110">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H110">
-        <v>35.79</v>
+        <v>35.5</v>
       </c>
       <c r="I110">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-08 17:44:54</v>
+        <v>2023-10-11 12:54:08</v>
       </c>
       <c r="B111">
-        <v>36.7</v>
+        <v>36</v>
       </c>
       <c r="C111">
-        <v>49.01</v>
+        <v>50.31</v>
       </c>
       <c r="D111">
         <v>268</v>
       </c>
       <c r="E111">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F111">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G111">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H111">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="I111">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-08 22:52:03</v>
+        <v>2023-10-11 18:03:08</v>
       </c>
       <c r="B112">
-        <v>36.5</v>
+        <v>36.79</v>
       </c>
       <c r="C112">
-        <v>49.01</v>
+        <v>50.31</v>
       </c>
       <c r="D112">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E112">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F112">
         <v>0.02</v>
       </c>
       <c r="G112">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>35.6</v>
+        <v>35.2</v>
       </c>
       <c r="I112">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 04:02:00</v>
+        <v>2023-10-11 23:13:29</v>
       </c>
       <c r="B113">
-        <v>36.7</v>
+        <v>37.1</v>
       </c>
       <c r="C113">
-        <v>49.59</v>
+        <v>50.31</v>
       </c>
       <c r="D113">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E113">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F113">
         <v>0.02</v>
       </c>
       <c r="G113">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H113">
         <v>35.6</v>
       </c>
       <c r="I113">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 09:14:28</v>
+        <v>2023-10-12 04:23:14</v>
       </c>
       <c r="B114">
-        <v>37</v>
+        <v>37.95</v>
       </c>
       <c r="C114">
-        <v>49.59</v>
+        <v>51.16</v>
       </c>
       <c r="D114">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E114">
         <v>0.03</v>
@@ -3523,27 +3523,27 @@
         <v>0.02</v>
       </c>
       <c r="G114">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="I114">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 14:24:49</v>
+        <v>2023-10-12 09:29:03</v>
       </c>
       <c r="B115">
-        <v>36.79</v>
+        <v>37.85</v>
       </c>
       <c r="C115">
-        <v>49.59</v>
+        <v>51.16</v>
       </c>
       <c r="D115">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E115">
         <v>0.03</v>
@@ -3552,56 +3552,56 @@
         <v>0.02</v>
       </c>
       <c r="G115">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>35.79</v>
+        <v>35.7</v>
       </c>
       <c r="I115">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-09 19:33:15</v>
+        <v>2023-10-12 14:37:40</v>
       </c>
       <c r="B116">
-        <v>36.79</v>
+        <v>37.79</v>
       </c>
       <c r="C116">
-        <v>49.59</v>
+        <v>51.16</v>
       </c>
       <c r="D116">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E116">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F116">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G116">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H116">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="I116">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-10 00:43:06</v>
+        <v>2023-10-12 19:49:25</v>
       </c>
       <c r="B117">
-        <v>36.99</v>
+        <v>36</v>
       </c>
       <c r="C117">
-        <v>49.59</v>
+        <v>51.16</v>
       </c>
       <c r="D117">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="E117">
         <v>0.03</v>
@@ -3610,27 +3610,27 @@
         <v>0.02</v>
       </c>
       <c r="G117">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H117">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="I117">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 05:52:27</v>
+        <v>2023-10-13 00:57:47</v>
       </c>
       <c r="B118">
-        <v>37</v>
+        <v>37.5</v>
       </c>
       <c r="C118">
-        <v>51.28</v>
+        <v>51.16</v>
       </c>
       <c r="D118">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="E118">
         <v>0.03</v>
@@ -3639,27 +3639,27 @@
         <v>0.02</v>
       </c>
       <c r="G118">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H118">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="I118">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 11:03:08</v>
+        <v>2023-10-13 06:08:37</v>
       </c>
       <c r="B119">
-        <v>36.78</v>
+        <v>37.4</v>
       </c>
       <c r="C119">
-        <v>51.28</v>
+        <v>48.3</v>
       </c>
       <c r="D119">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E119">
         <v>0.03</v>
@@ -3668,56 +3668,56 @@
         <v>0.02</v>
       </c>
       <c r="G119">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H119">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="I119">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 16:12:45</v>
+        <v>2023-10-13 11:19:51</v>
       </c>
       <c r="B120">
-        <v>36.78</v>
+        <v>37.29</v>
       </c>
       <c r="C120">
-        <v>51.28</v>
+        <v>48.3</v>
       </c>
       <c r="D120">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E120">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F120">
         <v>0.02</v>
       </c>
       <c r="G120">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H120">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="I120">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-10 21:24:34</v>
+        <v>2023-10-13 16:28:47</v>
       </c>
       <c r="B121">
-        <v>36.77</v>
+        <v>37.4</v>
       </c>
       <c r="C121">
-        <v>51.28</v>
+        <v>48.3</v>
       </c>
       <c r="D121">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E121">
         <v>0.03</v>
@@ -3726,27 +3726,27 @@
         <v>0.02</v>
       </c>
       <c r="G121">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H121">
-        <v>35.6</v>
+        <v>36.1</v>
       </c>
       <c r="I121">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-11 02:35:02</v>
+        <v>2023-10-13 21:38:28</v>
       </c>
       <c r="B122">
-        <v>36.78</v>
+        <v>37.65</v>
       </c>
       <c r="C122">
-        <v>50.31</v>
+        <v>48.3</v>
       </c>
       <c r="D122">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E122">
         <v>0.03</v>
@@ -3758,140 +3758,140 @@
         <v>46</v>
       </c>
       <c r="H122">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="I122">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 07:44:18</v>
+        <v>2023-10-14 02:48:21</v>
       </c>
       <c r="B123">
-        <v>36.78</v>
+        <v>37.6</v>
       </c>
       <c r="C123">
-        <v>50.31</v>
+        <v>48.81</v>
       </c>
       <c r="D123">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="E123">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F123">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G123">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H123">
-        <v>35.5</v>
+        <v>35.79</v>
       </c>
       <c r="I123">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 12:54:08</v>
+        <v>2023-10-14 07:58:51</v>
       </c>
       <c r="B124">
-        <v>36</v>
+        <v>37.6</v>
       </c>
       <c r="C124">
-        <v>50.31</v>
+        <v>48.81</v>
       </c>
       <c r="D124">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="E124">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F124">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G124">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H124">
-        <v>35.5</v>
+        <v>35.79</v>
       </c>
       <c r="I124">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-11 18:03:08</v>
+        <v>2023-10-14 13:10:32</v>
       </c>
       <c r="B125">
-        <v>36.79</v>
+        <v>37.59</v>
       </c>
       <c r="C125">
-        <v>50.31</v>
+        <v>48.81</v>
       </c>
       <c r="D125">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="E125">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F125">
         <v>0.02</v>
       </c>
       <c r="G125">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H125">
-        <v>35.2</v>
+        <v>36</v>
       </c>
       <c r="I125">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-11 23:13:29</v>
+        <v>2023-10-14 18:18:34</v>
       </c>
       <c r="B126">
-        <v>37.1</v>
+        <v>36.4</v>
       </c>
       <c r="C126">
-        <v>50.31</v>
+        <v>48.81</v>
       </c>
       <c r="D126">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="E126">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F126">
         <v>0.02</v>
       </c>
       <c r="G126">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H126">
-        <v>35.6</v>
+        <v>35.79</v>
       </c>
       <c r="I126">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 04:23:14</v>
+        <v>2023-10-14 23:28:33</v>
       </c>
       <c r="B127">
-        <v>37.95</v>
+        <v>36.2</v>
       </c>
       <c r="C127">
-        <v>51.16</v>
+        <v>48.81</v>
       </c>
       <c r="D127">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="E127">
         <v>0.03</v>
@@ -3900,27 +3900,27 @@
         <v>0.02</v>
       </c>
       <c r="G127">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H127">
-        <v>35.7</v>
+        <v>34.79</v>
       </c>
       <c r="I127">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 09:29:03</v>
+        <v>2023-10-15 04:39:33</v>
       </c>
       <c r="B128">
-        <v>37.85</v>
+        <v>36.2</v>
       </c>
       <c r="C128">
-        <v>51.16</v>
+        <v>49.92</v>
       </c>
       <c r="D128">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="E128">
         <v>0.03</v>
@@ -3929,143 +3929,143 @@
         <v>0.02</v>
       </c>
       <c r="G128">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H128">
-        <v>35.7</v>
+        <v>35.1</v>
       </c>
       <c r="I128">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 14:37:40</v>
+        <v>2023-10-15 09:49:22</v>
       </c>
       <c r="B129">
-        <v>37.79</v>
+        <v>36.2</v>
       </c>
       <c r="C129">
-        <v>51.16</v>
+        <v>49.92</v>
       </c>
       <c r="D129">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="E129">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F129">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G129">
         <v>45</v>
       </c>
       <c r="H129">
-        <v>35.9</v>
+        <v>35.2</v>
       </c>
       <c r="I129">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-12 19:49:25</v>
+        <v>2023-10-15 14:58:46</v>
       </c>
       <c r="B130">
-        <v>36</v>
+        <v>36.99</v>
       </c>
       <c r="C130">
-        <v>51.16</v>
+        <v>49.92</v>
       </c>
       <c r="D130">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="E130">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F130">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G130">
         <v>47</v>
       </c>
       <c r="H130">
-        <v>35.9</v>
+        <v>35.29</v>
       </c>
       <c r="I130">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-13 00:57:47</v>
+        <v>2023-10-15 20:09:02</v>
       </c>
       <c r="B131">
-        <v>37.5</v>
+        <v>36.13</v>
       </c>
       <c r="C131">
-        <v>51.16</v>
+        <v>49.92</v>
       </c>
       <c r="D131">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="E131">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F131">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G131">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H131">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I131">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 06:08:37</v>
+        <v>2023-10-16 01:19:31</v>
       </c>
       <c r="B132">
-        <v>37.4</v>
+        <v>36.4</v>
       </c>
       <c r="C132">
-        <v>48.3</v>
+        <v>49.92</v>
       </c>
       <c r="D132">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="E132">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F132">
         <v>0.02</v>
       </c>
       <c r="G132">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H132">
-        <v>36</v>
+        <v>35.2</v>
       </c>
       <c r="I132">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 11:19:51</v>
+        <v>2023-10-16 06:30:34</v>
       </c>
       <c r="B133">
-        <v>37.29</v>
+        <v>36.2</v>
       </c>
       <c r="C133">
-        <v>48.3</v>
+        <v>49.59</v>
       </c>
       <c r="D133">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="E133">
         <v>0.02</v>
@@ -4074,56 +4074,56 @@
         <v>0.02</v>
       </c>
       <c r="G133">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H133">
-        <v>36</v>
+        <v>35.2</v>
       </c>
       <c r="I133">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-13 16:28:47</v>
+        <v>2023-10-16 11:39:44</v>
       </c>
       <c r="B134">
-        <v>37.4</v>
+        <v>36.29</v>
       </c>
       <c r="C134">
-        <v>48.3</v>
+        <v>49.59</v>
       </c>
       <c r="D134">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="E134">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F134">
         <v>0.02</v>
       </c>
       <c r="G134">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H134">
-        <v>36.1</v>
+        <v>35.2</v>
       </c>
       <c r="I134">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-13 21:38:28</v>
+        <v>2023-10-16 16:49:39</v>
       </c>
       <c r="B135">
-        <v>37.65</v>
+        <v>34.9</v>
       </c>
       <c r="C135">
-        <v>48.3</v>
+        <v>49.59</v>
       </c>
       <c r="D135">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="E135">
         <v>0.03</v>
@@ -4132,27 +4132,27 @@
         <v>0.02</v>
       </c>
       <c r="G135">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H135">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I135">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-14 02:48:21</v>
+        <v>2023-10-16 21:59:37</v>
       </c>
       <c r="B136">
-        <v>37.6</v>
+        <v>35.2</v>
       </c>
       <c r="C136">
-        <v>48.81</v>
+        <v>49.59</v>
       </c>
       <c r="D136">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="E136">
         <v>0.02</v>
@@ -4161,56 +4161,56 @@
         <v>0.01</v>
       </c>
       <c r="G136">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H136">
-        <v>35.79</v>
+        <v>35</v>
       </c>
       <c r="I136">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 07:58:51</v>
+        <v>2023-10-17 03:10:08</v>
       </c>
       <c r="B137">
-        <v>37.6</v>
+        <v>34.9</v>
       </c>
       <c r="C137">
-        <v>48.81</v>
+        <v>49.01</v>
       </c>
       <c r="D137">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E137">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F137">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G137">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H137">
-        <v>35.79</v>
+        <v>33.29</v>
       </c>
       <c r="I137">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 13:10:32</v>
+        <v>2023-10-17 08:19:33</v>
       </c>
       <c r="B138">
-        <v>37.59</v>
+        <v>34.9</v>
       </c>
       <c r="C138">
-        <v>48.81</v>
+        <v>49.01</v>
       </c>
       <c r="D138">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E138">
         <v>0.03</v>
@@ -4219,27 +4219,27 @@
         <v>0.02</v>
       </c>
       <c r="G138">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H138">
-        <v>36</v>
+        <v>33.5</v>
       </c>
       <c r="I138">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-14 18:18:34</v>
+        <v>2023-10-17 13:30:09</v>
       </c>
       <c r="B139">
-        <v>36.4</v>
+        <v>34.9</v>
       </c>
       <c r="C139">
-        <v>48.81</v>
+        <v>49.01</v>
       </c>
       <c r="D139">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E139">
         <v>0.03</v>
@@ -4248,68 +4248,68 @@
         <v>0.02</v>
       </c>
       <c r="G139">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H139">
-        <v>35.79</v>
+        <v>33.7</v>
       </c>
       <c r="I139">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-14 23:28:33</v>
+        <v>2023-10-17 18:40:40</v>
       </c>
       <c r="B140">
-        <v>36.2</v>
+        <v>34.79</v>
       </c>
       <c r="C140">
-        <v>48.81</v>
+        <v>49.01</v>
       </c>
       <c r="D140">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E140">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F140">
         <v>0.02</v>
       </c>
       <c r="G140">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H140">
-        <v>34.79</v>
+        <v>33.9</v>
       </c>
       <c r="I140">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 04:39:33</v>
+        <v>2023-10-17 23:49:42</v>
       </c>
       <c r="B141">
-        <v>36.2</v>
+        <v>34.6</v>
       </c>
       <c r="C141">
-        <v>49.92</v>
+        <v>49.01</v>
       </c>
       <c r="D141">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E141">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F141">
         <v>0.02</v>
       </c>
       <c r="G141">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H141">
-        <v>35.1</v>
+        <v>34</v>
       </c>
       <c r="I141">
         <v>15</v>
@@ -4317,144 +4317,144 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 09:49:22</v>
+        <v>2023-10-18 05:03:21</v>
       </c>
       <c r="B142">
-        <v>36.2</v>
+        <v>35</v>
       </c>
       <c r="C142">
-        <v>49.92</v>
+        <v>51.35</v>
       </c>
       <c r="D142">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E142">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F142">
         <v>0.02</v>
       </c>
       <c r="G142">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H142">
-        <v>35.2</v>
+        <v>34</v>
       </c>
       <c r="I142">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 14:58:46</v>
+        <v>2023-10-18 10:09:48</v>
       </c>
       <c r="B143">
-        <v>36.99</v>
+        <v>35</v>
       </c>
       <c r="C143">
-        <v>49.92</v>
+        <v>51.35</v>
       </c>
       <c r="D143">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E143">
         <v>0.02</v>
       </c>
       <c r="F143">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G143">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H143">
-        <v>35.29</v>
+        <v>33.79</v>
       </c>
       <c r="I143">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-15 20:09:02</v>
+        <v>2023-10-18 15:19:47</v>
       </c>
       <c r="B144">
-        <v>36.13</v>
+        <v>35.69</v>
       </c>
       <c r="C144">
-        <v>49.92</v>
+        <v>51.35</v>
       </c>
       <c r="D144">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E144">
         <v>0.02</v>
       </c>
       <c r="F144">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G144">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H144">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I144">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-16 01:19:31</v>
+        <v>2023-10-18 20:29:46</v>
       </c>
       <c r="B145">
-        <v>36.4</v>
+        <v>35.54</v>
       </c>
       <c r="C145">
-        <v>49.92</v>
+        <v>51.35</v>
       </c>
       <c r="D145">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E145">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F145">
         <v>0.02</v>
       </c>
       <c r="G145">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H145">
-        <v>35.2</v>
+        <v>33.9</v>
       </c>
       <c r="I145">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 06:30:34</v>
+        <v>2023-10-19 01:41:09</v>
       </c>
       <c r="B146">
-        <v>36.2</v>
+        <v>35.35</v>
       </c>
       <c r="C146">
-        <v>49.59</v>
+        <v>51.35</v>
       </c>
       <c r="D146">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E146">
         <v>0.02</v>
       </c>
       <c r="F146">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G146">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H146">
-        <v>35.2</v>
+        <v>33.7</v>
       </c>
       <c r="I146">
         <v>15</v>
@@ -4462,31 +4462,31 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-16 11:39:44</v>
+        <v>2023-10-19 06:53:17</v>
       </c>
       <c r="B147">
-        <v>36.29</v>
+        <v>35.34</v>
       </c>
       <c r="C147">
-        <v>49.59</v>
+        <v>51.35</v>
       </c>
       <c r="D147">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E147">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F147">
         <v>0.02</v>
       </c>
       <c r="G147">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H147">
-        <v>35.2</v>
+        <v>33.7</v>
       </c>
       <c r="I147">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
